--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778972.0600000001</v>
+        <v>1736762.87</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70815.64</v>
+        <v>96486.83</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136345</v>
+        <v>135266.71</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153189.7</v>
+        <v>168886.66</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3863.73</v>
+        <v>4356.69</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14861.69</v>
+        <v>9868.66</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140757.9</v>
+        <v>140198</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105673.55</v>
+        <v>105568.93</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18899.87</v>
+        <v>18861.21</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47567.93</v>
+        <v>50902.37</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97240.23</v>
+        <v>97153.46000000001</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16705.71</v>
+        <v>16642</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,77 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43866.75</v>
+        <v>43762.45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6755.51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8478.049999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12696.41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>230080.44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>107474.55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>170210.92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>409599.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,39 +436,51 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1736762.87</v>
+        <v>97104.03999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>102326.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96486.83</v>
+        <v>136756.19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>136797.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135266.71</v>
-      </c>
+        <v>16632.73</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -477,147 +489,186 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168886.66</v>
-      </c>
+        <v>187788.28</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4356.69</v>
+        <v>405460.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>391972.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9868.66</v>
+        <v>12705.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12704.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140198</v>
+        <v>229522.58</v>
+      </c>
+      <c r="C8" t="n">
+        <v>228620.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105568.93</v>
+        <v>6672.02</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6737.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18861.21</v>
+        <v>107044.07</v>
+      </c>
+      <c r="C10" t="n">
+        <v>106425.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50902.37</v>
+        <v>8484.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8493.879999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97153.46000000001</v>
+        <v>4698.23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4679.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16642</v>
+        <v>9250.559999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9784.440000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43762.45</v>
-      </c>
+        <v>53874.89</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6755.51</v>
+        <v>18144.62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17991.65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8478.049999999999</v>
+        <v>43791.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43905.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12696.41</v>
+        <v>140229.79</v>
+      </c>
+      <c r="C17" t="n">
+        <v>140375.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>230080.44</v>
-      </c>
+        <v>105453.69</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107474.55</v>
+        <v>18922.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18817.61</v>
       </c>
     </row>
     <row r="20">
@@ -627,17 +678,36 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170210.92</v>
+        <v>170353.46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>170525.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>409599.85</v>
+        <v>93309.99000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>93343.85000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1772889.82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1400157.74</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,165 +443,132 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97104.03999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>102326.47</v>
+        <v>1596810.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136756.19</v>
-      </c>
-      <c r="C3" t="n">
-        <v>136797.84</v>
+        <v>99800.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16632.73</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>102326.47</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187788.28</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>136797.84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405460.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>391972.41</v>
+        <v>196652.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12705.25</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12704.26</v>
+        <v>391972.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229522.58</v>
-      </c>
-      <c r="C8" t="n">
-        <v>228620.38</v>
+        <v>6737.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6672.02</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6737.66</v>
+        <v>8493.879999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107044.07</v>
-      </c>
-      <c r="C10" t="n">
-        <v>106425.39</v>
+        <v>12704.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8484.85</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8493.879999999999</v>
+        <v>228620.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4698.23</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4679.44</v>
+        <v>106425.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9250.559999999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9784.440000000001</v>
+        <v>4679.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53874.89</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>9784.440000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -615,9 +577,6 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18144.62</v>
-      </c>
-      <c r="C15" t="n">
         <v>17991.65</v>
       </c>
     </row>
@@ -628,9 +587,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43791.13</v>
-      </c>
-      <c r="C16" t="n">
         <v>43905.49</v>
       </c>
     </row>
@@ -641,73 +597,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>140229.79</v>
-      </c>
-      <c r="C17" t="n">
         <v>140375.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>105453.69</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>18817.61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18922.94</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18817.61</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Toronto trust Argy</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>170353.46</v>
-      </c>
-      <c r="C20" t="n">
         <v>170525.29</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>93309.99000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>93343.85000000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1772889.82</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1400157.74</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,185 +439,234 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1596810.12</v>
+        <v>102326.47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>102454.54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99800.63</v>
+        <v>136797.84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>136194.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102326.47</v>
+        <v>196652.38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>196810.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136797.84</v>
+        <v>391972.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>390243.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196652.38</v>
-      </c>
+        <v>6737.66</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391972.41</v>
-      </c>
+        <v>8493.879999999999</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6737.66</v>
-      </c>
+        <v>12704.26</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8493.879999999999</v>
-      </c>
+        <v>228620.38</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12704.26</v>
-      </c>
+        <v>106425.39</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228620.38</v>
+        <v>4679.44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4927.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106425.39</v>
+        <v>9784.440000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9075.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4679.44</v>
+        <v>17991.65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23446.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9784.440000000001</v>
+        <v>43905.49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>43913.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17991.65</v>
+        <v>140375.53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>140141.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43905.49</v>
+        <v>18817.61</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18675.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>140375.53</v>
+        <v>170525.29</v>
+      </c>
+      <c r="C17" t="n">
+        <v>170523.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18817.61</v>
+        <v>99800.63</v>
+      </c>
+      <c r="C18" t="n">
+        <v>112400.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170525.29</v>
+        <v>1596810.12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1236405.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>102454.54</v>
       </c>
+      <c r="D2" t="n">
+        <v>102333</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>136194.07</v>
       </c>
+      <c r="D3" t="n">
+        <v>136063.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>196810.9</v>
       </c>
+      <c r="D4" t="n">
+        <v>196700.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>390243.02</v>
       </c>
+      <c r="D5" t="n">
+        <v>390154.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
         <v>6737.66</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>6854.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -518,6 +538,9 @@
         <v>8493.879999999999</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>8492.139999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -529,6 +552,9 @@
         <v>12704.26</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>12694.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -540,6 +566,9 @@
         <v>228620.38</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>227479.63</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -551,6 +580,9 @@
         <v>106425.39</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>107260.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -564,6 +596,9 @@
       <c r="C11" t="n">
         <v>4927.07</v>
       </c>
+      <c r="D11" t="n">
+        <v>4915.71</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -577,6 +612,9 @@
       <c r="C12" t="n">
         <v>9075.68</v>
       </c>
+      <c r="D12" t="n">
+        <v>9809.98</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -590,6 +628,9 @@
       <c r="C13" t="n">
         <v>23446.42</v>
       </c>
+      <c r="D13" t="n">
+        <v>23410.78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -603,6 +644,9 @@
       <c r="C14" t="n">
         <v>43913.46</v>
       </c>
+      <c r="D14" t="n">
+        <v>43844.82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -616,6 +660,9 @@
       <c r="C15" t="n">
         <v>140141.9</v>
       </c>
+      <c r="D15" t="n">
+        <v>140186.73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -629,6 +676,9 @@
       <c r="C16" t="n">
         <v>18675.13</v>
       </c>
+      <c r="D16" t="n">
+        <v>18904.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -642,6 +692,9 @@
       <c r="C17" t="n">
         <v>170523.4</v>
       </c>
+      <c r="D17" t="n">
+        <v>170278.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -655,6 +708,9 @@
       <c r="C18" t="n">
         <v>112400.51</v>
       </c>
+      <c r="D18" t="n">
+        <v>99961.47</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -667,6 +723,9 @@
       </c>
       <c r="C19" t="n">
         <v>1236405.59</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1599383.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>102333</v>
       </c>
+      <c r="E2" t="n">
+        <v>102535.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>136063.09</v>
       </c>
+      <c r="E3" t="n">
+        <v>136760.98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>196700.8</v>
       </c>
+      <c r="E4" t="n">
+        <v>196687.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -512,6 +526,9 @@
       </c>
       <c r="D5" t="n">
         <v>390154.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>361924.64</v>
       </c>
     </row>
     <row r="6">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>6854.92</v>
       </c>
+      <c r="E6" t="n">
+        <v>6734.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -541,6 +561,9 @@
       <c r="D7" t="n">
         <v>8492.139999999999</v>
       </c>
+      <c r="E7" t="n">
+        <v>8490.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -555,6 +578,9 @@
       <c r="D8" t="n">
         <v>12694.4</v>
       </c>
+      <c r="E8" t="n">
+        <v>12682.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -569,6 +595,9 @@
       <c r="D9" t="n">
         <v>227479.63</v>
       </c>
+      <c r="E9" t="n">
+        <v>226040.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -583,6 +612,9 @@
       <c r="D10" t="n">
         <v>107260.17</v>
       </c>
+      <c r="E10" t="n">
+        <v>106518.89</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -599,6 +631,9 @@
       <c r="D11" t="n">
         <v>4915.71</v>
       </c>
+      <c r="E11" t="n">
+        <v>4785.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -615,6 +650,9 @@
       <c r="D12" t="n">
         <v>9809.98</v>
       </c>
+      <c r="E12" t="n">
+        <v>9702.200000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -631,6 +669,9 @@
       <c r="D13" t="n">
         <v>23410.78</v>
       </c>
+      <c r="E13" t="n">
+        <v>23385.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -647,6 +688,9 @@
       <c r="D14" t="n">
         <v>43844.82</v>
       </c>
+      <c r="E14" t="n">
+        <v>43890.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -663,6 +707,9 @@
       <c r="D15" t="n">
         <v>140186.73</v>
       </c>
+      <c r="E15" t="n">
+        <v>140556.92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -679,6 +726,9 @@
       <c r="D16" t="n">
         <v>18904.13</v>
       </c>
+      <c r="E16" t="n">
+        <v>18899.96</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -695,6 +745,7 @@
       <c r="D17" t="n">
         <v>170278.7</v>
       </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -711,6 +762,9 @@
       <c r="D18" t="n">
         <v>99961.47</v>
       </c>
+      <c r="E18" t="n">
+        <v>93306.31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -726,6 +780,9 @@
       </c>
       <c r="D19" t="n">
         <v>1599383.55</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1399594.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>102535.31</v>
       </c>
+      <c r="F2" t="n">
+        <v>102334.24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>136760.98</v>
       </c>
+      <c r="F3" t="n">
+        <v>136672.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>196687.41</v>
       </c>
+      <c r="F4" t="n">
+        <v>204136.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -529,6 +543,9 @@
       </c>
       <c r="E5" t="n">
         <v>361924.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>343288.53</v>
       </c>
     </row>
     <row r="6">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>6734.18</v>
       </c>
+      <c r="F6" t="n">
+        <v>6814.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,6 +584,9 @@
       <c r="E7" t="n">
         <v>8490.5</v>
       </c>
+      <c r="F7" t="n">
+        <v>8492.950000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +604,9 @@
       <c r="E8" t="n">
         <v>12682.24</v>
       </c>
+      <c r="F8" t="n">
+        <v>12698.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -598,6 +624,9 @@
       <c r="E9" t="n">
         <v>226040.06</v>
       </c>
+      <c r="F9" t="n">
+        <v>225742.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -615,6 +644,9 @@
       <c r="E10" t="n">
         <v>106518.89</v>
       </c>
+      <c r="F10" t="n">
+        <v>107794.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -634,6 +666,9 @@
       <c r="E11" t="n">
         <v>4785.7</v>
       </c>
+      <c r="F11" t="n">
+        <v>4556.44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +688,9 @@
       <c r="E12" t="n">
         <v>9702.200000000001</v>
       </c>
+      <c r="F12" t="n">
+        <v>9736.690000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -672,6 +710,9 @@
       <c r="E13" t="n">
         <v>23385.1</v>
       </c>
+      <c r="F13" t="n">
+        <v>23419.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -691,6 +732,9 @@
       <c r="E14" t="n">
         <v>43890.63</v>
       </c>
+      <c r="F14" t="n">
+        <v>43781.44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -710,6 +754,9 @@
       <c r="E15" t="n">
         <v>140556.92</v>
       </c>
+      <c r="F15" t="n">
+        <v>140239.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -729,6 +776,9 @@
       <c r="E16" t="n">
         <v>18899.96</v>
       </c>
+      <c r="F16" t="n">
+        <v>18739.86</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -746,6 +796,7 @@
         <v>170278.7</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -765,6 +816,9 @@
       <c r="E18" t="n">
         <v>93306.31</v>
       </c>
+      <c r="F18" t="n">
+        <v>92563.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -783,6 +837,9 @@
       </c>
       <c r="E19" t="n">
         <v>1399594.72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1388447.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>102334.24</v>
       </c>
+      <c r="G2" t="n">
+        <v>102488.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>136672.54</v>
       </c>
+      <c r="G3" t="n">
+        <v>135411.34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>204136.09</v>
       </c>
+      <c r="G4" t="n">
+        <v>204069.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -546,6 +560,9 @@
       </c>
       <c r="F5" t="n">
         <v>343288.53</v>
+      </c>
+      <c r="G5" t="n">
+        <v>335029.52</v>
       </c>
     </row>
     <row r="6">
@@ -567,6 +584,9 @@
       <c r="F6" t="n">
         <v>6814.1</v>
       </c>
+      <c r="G6" t="n">
+        <v>6948.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -587,6 +607,9 @@
       <c r="F7" t="n">
         <v>8492.950000000001</v>
       </c>
+      <c r="G7" t="n">
+        <v>8483.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +630,9 @@
       <c r="F8" t="n">
         <v>12698.53</v>
       </c>
+      <c r="G8" t="n">
+        <v>12713.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -627,6 +653,9 @@
       <c r="F9" t="n">
         <v>225742.86</v>
       </c>
+      <c r="G9" t="n">
+        <v>227647.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -647,6 +676,9 @@
       <c r="F10" t="n">
         <v>107794.25</v>
       </c>
+      <c r="G10" t="n">
+        <v>107785.28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -669,6 +701,9 @@
       <c r="F11" t="n">
         <v>4556.44</v>
       </c>
+      <c r="G11" t="n">
+        <v>5025.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +726,9 @@
       <c r="F12" t="n">
         <v>9736.690000000001</v>
       </c>
+      <c r="G12" t="n">
+        <v>9474.280000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -713,6 +751,9 @@
       <c r="F13" t="n">
         <v>23419.36</v>
       </c>
+      <c r="G13" t="n">
+        <v>23660.21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -735,6 +776,9 @@
       <c r="F14" t="n">
         <v>43781.44</v>
       </c>
+      <c r="G14" t="n">
+        <v>43695.97</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -757,6 +801,9 @@
       <c r="F15" t="n">
         <v>140239.5</v>
       </c>
+      <c r="G15" t="n">
+        <v>140553.64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -779,6 +826,9 @@
       <c r="F16" t="n">
         <v>18739.86</v>
       </c>
+      <c r="G16" t="n">
+        <v>18934.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -797,6 +847,7 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -819,6 +870,9 @@
       <c r="F18" t="n">
         <v>92563.16</v>
       </c>
+      <c r="G18" t="n">
+        <v>92128.00999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -840,6 +894,9 @@
       </c>
       <c r="F19" t="n">
         <v>1388447.38</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1381920.19</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>102488.58</v>
       </c>
+      <c r="H2" t="n">
+        <v>102557.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>135411.34</v>
       </c>
+      <c r="H3" t="n">
+        <v>136731.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>204069.28</v>
       </c>
+      <c r="H4" t="n">
+        <v>219233.66</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>335029.52</v>
+      </c>
+      <c r="H5" t="n">
+        <v>320658.9</v>
       </c>
     </row>
     <row r="6">
@@ -587,6 +604,9 @@
       <c r="G6" t="n">
         <v>6948.35</v>
       </c>
+      <c r="H6" t="n">
+        <v>6531.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -610,6 +630,9 @@
       <c r="G7" t="n">
         <v>8483.5</v>
       </c>
+      <c r="H7" t="n">
+        <v>8490.120000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +656,9 @@
       <c r="G8" t="n">
         <v>12713.03</v>
       </c>
+      <c r="H8" t="n">
+        <v>12690.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -656,6 +682,9 @@
       <c r="G9" t="n">
         <v>227647.01</v>
       </c>
+      <c r="H9" t="n">
+        <v>186725.31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -679,6 +708,9 @@
       <c r="G10" t="n">
         <v>107785.28</v>
       </c>
+      <c r="H10" t="n">
+        <v>108047.64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -704,6 +736,9 @@
       <c r="G11" t="n">
         <v>5025.25</v>
       </c>
+      <c r="H11" t="n">
+        <v>4684.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +764,9 @@
       <c r="G12" t="n">
         <v>9474.280000000001</v>
       </c>
+      <c r="H12" t="n">
+        <v>4489.46</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -754,6 +792,9 @@
       <c r="G13" t="n">
         <v>23660.21</v>
       </c>
+      <c r="H13" t="n">
+        <v>23376.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -779,6 +820,9 @@
       <c r="G14" t="n">
         <v>43695.97</v>
       </c>
+      <c r="H14" t="n">
+        <v>43792.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -804,6 +848,9 @@
       <c r="G15" t="n">
         <v>140553.64</v>
       </c>
+      <c r="H15" t="n">
+        <v>140184.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -828,6 +875,9 @@
       </c>
       <c r="G16" t="n">
         <v>18934.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18679.1</v>
       </c>
     </row>
     <row r="17">
@@ -848,6 +898,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +924,9 @@
       <c r="G18" t="n">
         <v>92128.00999999999</v>
       </c>
+      <c r="H18" t="n">
+        <v>89124.86</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +951,9 @@
       </c>
       <c r="G19" t="n">
         <v>1381920.19</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1336872.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>102557.07</v>
       </c>
+      <c r="I2" t="n">
+        <v>102634.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>136731.58</v>
       </c>
+      <c r="I3" t="n">
+        <v>136000.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>219233.66</v>
       </c>
+      <c r="I4" t="n">
+        <v>219300.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -580,6 +594,9 @@
       </c>
       <c r="H5" t="n">
         <v>320658.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>312067.95</v>
       </c>
     </row>
     <row r="6">
@@ -607,6 +624,9 @@
       <c r="H6" t="n">
         <v>6531.21</v>
       </c>
+      <c r="I6" t="n">
+        <v>6962.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -633,6 +653,9 @@
       <c r="H7" t="n">
         <v>8490.120000000001</v>
       </c>
+      <c r="I7" t="n">
+        <v>8487.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +682,9 @@
       <c r="H8" t="n">
         <v>12690.14</v>
       </c>
+      <c r="I8" t="n">
+        <v>12705.24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -685,6 +711,9 @@
       <c r="H9" t="n">
         <v>186725.31</v>
       </c>
+      <c r="I9" t="n">
+        <v>187478.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -711,6 +740,9 @@
       <c r="H10" t="n">
         <v>108047.64</v>
       </c>
+      <c r="I10" t="n">
+        <v>108290.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -739,6 +771,9 @@
       <c r="H11" t="n">
         <v>4684.52</v>
       </c>
+      <c r="I11" t="n">
+        <v>4772.32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +802,9 @@
       <c r="H12" t="n">
         <v>4489.46</v>
       </c>
+      <c r="I12" t="n">
+        <v>4724.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -795,6 +833,9 @@
       <c r="H13" t="n">
         <v>23376.95</v>
       </c>
+      <c r="I13" t="n">
+        <v>23589.29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -823,6 +864,9 @@
       <c r="H14" t="n">
         <v>43792.54</v>
       </c>
+      <c r="I14" t="n">
+        <v>43902.66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -851,6 +895,9 @@
       <c r="H15" t="n">
         <v>140184.7</v>
       </c>
+      <c r="I15" t="n">
+        <v>140563.94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -878,6 +925,9 @@
       </c>
       <c r="H16" t="n">
         <v>18679.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18829.24</v>
       </c>
     </row>
     <row r="17">
@@ -899,6 +949,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -927,6 +978,9 @@
       <c r="H18" t="n">
         <v>89124.86</v>
       </c>
+      <c r="I18" t="n">
+        <v>88687.27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -954,6 +1008,9 @@
       </c>
       <c r="H19" t="n">
         <v>1336872.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1330309.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>102634.39</v>
       </c>
+      <c r="J2" t="n">
+        <v>102456.59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>136000.72</v>
       </c>
+      <c r="J3" t="n">
+        <v>95676.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>219300.6</v>
       </c>
+      <c r="J4" t="n">
+        <v>219120.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -597,6 +611,9 @@
       </c>
       <c r="I5" t="n">
         <v>312067.95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>311093.01</v>
       </c>
     </row>
     <row r="6">
@@ -627,6 +644,9 @@
       <c r="I6" t="n">
         <v>6962.28</v>
       </c>
+      <c r="J6" t="n">
+        <v>6847.73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -656,6 +676,9 @@
       <c r="I7" t="n">
         <v>8487.08</v>
       </c>
+      <c r="J7" t="n">
+        <v>8489.07</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +708,9 @@
       <c r="I8" t="n">
         <v>12705.24</v>
       </c>
+      <c r="J8" t="n">
+        <v>12703.64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -714,6 +740,9 @@
       <c r="I9" t="n">
         <v>187478.22</v>
       </c>
+      <c r="J9" t="n">
+        <v>188798.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -743,6 +772,9 @@
       <c r="I10" t="n">
         <v>108290.5</v>
       </c>
+      <c r="J10" t="n">
+        <v>108161.85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -774,6 +806,9 @@
       <c r="I11" t="n">
         <v>4772.32</v>
       </c>
+      <c r="J11" t="n">
+        <v>4614.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,6 +840,9 @@
       <c r="I12" t="n">
         <v>4724.6</v>
       </c>
+      <c r="J12" t="n">
+        <v>626.89</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -836,6 +874,9 @@
       <c r="I13" t="n">
         <v>23589.29</v>
       </c>
+      <c r="J13" t="n">
+        <v>23381.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -867,6 +908,9 @@
       <c r="I14" t="n">
         <v>43902.66</v>
       </c>
+      <c r="J14" t="n">
+        <v>43818.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -898,6 +942,9 @@
       <c r="I15" t="n">
         <v>140563.94</v>
       </c>
+      <c r="J15" t="n">
+        <v>140759.73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -928,6 +975,9 @@
       </c>
       <c r="I16" t="n">
         <v>18829.24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18691.93</v>
       </c>
     </row>
     <row r="17">
@@ -950,6 +1000,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -981,6 +1032,9 @@
       <c r="I18" t="n">
         <v>88687.27</v>
       </c>
+      <c r="J18" t="n">
+        <v>85682.60000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1011,6 +1065,9 @@
       </c>
       <c r="I19" t="n">
         <v>1330309.03</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1285239.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>102456.59</v>
       </c>
+      <c r="K2" t="n">
+        <v>102479.67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>95676.11</v>
       </c>
+      <c r="K3" t="n">
+        <v>95682.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>219120.2</v>
       </c>
+      <c r="K4" t="n">
+        <v>219171.56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -614,6 +628,9 @@
       </c>
       <c r="J5" t="n">
         <v>311093.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>310284.69</v>
       </c>
     </row>
     <row r="6">
@@ -647,6 +664,9 @@
       <c r="J6" t="n">
         <v>6847.73</v>
       </c>
+      <c r="K6" t="n">
+        <v>6952.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -679,6 +699,9 @@
       <c r="J7" t="n">
         <v>8489.07</v>
       </c>
+      <c r="K7" t="n">
+        <v>8490.530000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +734,9 @@
       <c r="J8" t="n">
         <v>12703.64</v>
       </c>
+      <c r="K8" t="n">
+        <v>12696.59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -743,6 +769,9 @@
       <c r="J9" t="n">
         <v>188798.7</v>
       </c>
+      <c r="K9" t="n">
+        <v>187359.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -775,6 +804,9 @@
       <c r="J10" t="n">
         <v>108161.85</v>
       </c>
+      <c r="K10" t="n">
+        <v>66781.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -809,6 +841,9 @@
       <c r="J11" t="n">
         <v>4614.17</v>
       </c>
+      <c r="K11" t="n">
+        <v>4644.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +878,9 @@
       <c r="J12" t="n">
         <v>626.89</v>
       </c>
+      <c r="K12" t="n">
+        <v>611.11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -877,6 +915,9 @@
       <c r="J13" t="n">
         <v>23381.12</v>
       </c>
+      <c r="K13" t="n">
+        <v>23456.59</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -911,6 +952,9 @@
       <c r="J14" t="n">
         <v>43818.3</v>
       </c>
+      <c r="K14" t="n">
+        <v>43832.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -945,6 +989,9 @@
       <c r="J15" t="n">
         <v>140759.73</v>
       </c>
+      <c r="K15" t="n">
+        <v>140209.65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -978,6 +1025,9 @@
       </c>
       <c r="J16" t="n">
         <v>18691.93</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18688.94</v>
       </c>
     </row>
     <row r="17">
@@ -1001,6 +1051,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1035,6 +1086,9 @@
       <c r="J18" t="n">
         <v>85682.60000000001</v>
       </c>
+      <c r="K18" t="n">
+        <v>82756.14999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1068,6 +1122,9 @@
       </c>
       <c r="J19" t="n">
         <v>1285239.04</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1241342.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>102479.67</v>
       </c>
+      <c r="L2" t="n">
+        <v>102462.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>95682.23</v>
       </c>
+      <c r="L3" t="n">
+        <v>94490.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>219171.56</v>
       </c>
+      <c r="L4" t="n">
+        <v>209377.46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,6 +645,9 @@
       </c>
       <c r="K5" t="n">
         <v>310284.69</v>
+      </c>
+      <c r="L5" t="n">
+        <v>309955.7</v>
       </c>
     </row>
     <row r="6">
@@ -667,6 +684,9 @@
       <c r="K6" t="n">
         <v>6952.42</v>
       </c>
+      <c r="L6" t="n">
+        <v>6582.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -702,6 +722,9 @@
       <c r="K7" t="n">
         <v>8490.530000000001</v>
       </c>
+      <c r="L7" t="n">
+        <v>8476.780000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +760,9 @@
       <c r="K8" t="n">
         <v>12696.59</v>
       </c>
+      <c r="L8" t="n">
+        <v>12689.41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -772,6 +798,9 @@
       <c r="K9" t="n">
         <v>187359.14</v>
       </c>
+      <c r="L9" t="n">
+        <v>188588.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -807,6 +836,9 @@
       <c r="K10" t="n">
         <v>66781.5</v>
       </c>
+      <c r="L10" t="n">
+        <v>66193.25999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -844,6 +876,9 @@
       <c r="K11" t="n">
         <v>4644.7</v>
       </c>
+      <c r="L11" t="n">
+        <v>4543.85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -881,6 +916,9 @@
       <c r="K12" t="n">
         <v>611.11</v>
       </c>
+      <c r="L12" t="n">
+        <v>568.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -918,6 +956,9 @@
       <c r="K13" t="n">
         <v>23456.59</v>
       </c>
+      <c r="L13" t="n">
+        <v>23495.43</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -955,6 +996,9 @@
       <c r="K14" t="n">
         <v>43832.86</v>
       </c>
+      <c r="L14" t="n">
+        <v>43804.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -992,6 +1036,9 @@
       <c r="K15" t="n">
         <v>140209.65</v>
       </c>
+      <c r="L15" t="n">
+        <v>140444.83</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1028,6 +1075,9 @@
       </c>
       <c r="K16" t="n">
         <v>18688.94</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18908.45</v>
       </c>
     </row>
     <row r="17">
@@ -1052,6 +1102,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1089,6 +1140,9 @@
       <c r="K18" t="n">
         <v>82756.14999999999</v>
       </c>
+      <c r="L18" t="n">
+        <v>82038.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1125,6 +1179,9 @@
       </c>
       <c r="K19" t="n">
         <v>1241342.18</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1230580.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/IRSA.xlsx
+++ b/backend/src/excel_handler/files/IRSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>102462.25</v>
       </c>
+      <c r="M2" t="n">
+        <v>102320.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>94490.41</v>
       </c>
+      <c r="M3" t="n">
+        <v>95168.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>209377.46</v>
       </c>
+      <c r="M4" t="n">
+        <v>209338.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -648,6 +662,9 @@
       </c>
       <c r="L5" t="n">
         <v>309955.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>311481.69</v>
       </c>
     </row>
     <row r="6">
@@ -687,6 +704,9 @@
       <c r="L6" t="n">
         <v>6582.03</v>
       </c>
+      <c r="M6" t="n">
+        <v>6680.88</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -725,6 +745,9 @@
       <c r="L7" t="n">
         <v>8476.780000000001</v>
       </c>
+      <c r="M7" t="n">
+        <v>8487.76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +786,9 @@
       <c r="L8" t="n">
         <v>12689.41</v>
       </c>
+      <c r="M8" t="n">
+        <v>12699.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -801,6 +827,9 @@
       <c r="L9" t="n">
         <v>188588.23</v>
       </c>
+      <c r="M9" t="n">
+        <v>187584.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -839,6 +868,9 @@
       <c r="L10" t="n">
         <v>66193.25999999999</v>
       </c>
+      <c r="M10" t="n">
+        <v>67218.64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -879,6 +911,9 @@
       <c r="L11" t="n">
         <v>4543.85</v>
       </c>
+      <c r="M11" t="n">
+        <v>4678.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -919,6 +954,9 @@
       <c r="L12" t="n">
         <v>568.16</v>
       </c>
+      <c r="M12" t="n">
+        <v>578.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -959,6 +997,9 @@
       <c r="L13" t="n">
         <v>23495.43</v>
       </c>
+      <c r="M13" t="n">
+        <v>23610.69</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -999,6 +1040,9 @@
       <c r="L14" t="n">
         <v>43804.25</v>
       </c>
+      <c r="M14" t="n">
+        <v>43864.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1039,6 +1083,9 @@
       <c r="L15" t="n">
         <v>140444.83</v>
       </c>
+      <c r="M15" t="n">
+        <v>140417.65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1078,6 +1125,9 @@
       </c>
       <c r="L16" t="n">
         <v>18908.45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18734.93</v>
       </c>
     </row>
     <row r="17">
@@ -1103,6 +1153,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1143,6 +1194,9 @@
       <c r="L18" t="n">
         <v>82038.7</v>
       </c>
+      <c r="M18" t="n">
+        <v>82190.97</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1182,6 +1236,9 @@
       </c>
       <c r="L19" t="n">
         <v>1230580.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1232864.5</v>
       </c>
     </row>
   </sheetData>
